--- a/manuscript/scripts/journals.xlsx
+++ b/manuscript/scripts/journals.xlsx
@@ -14177,12 +14177,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-321527088"/>
-        <c:axId val="-321525728"/>
-        <c:axId val="-321521968"/>
+        <c:axId val="1494852464"/>
+        <c:axId val="1454085888"/>
+        <c:axId val="1454089008"/>
       </c:area3DChart>
       <c:catAx>
-        <c:axId val="-321527088"/>
+        <c:axId val="1494852464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14280,7 +14280,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-321525728"/>
+        <c:crossAx val="1454085888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14288,7 +14288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-321525728"/>
+        <c:axId val="1454085888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14391,12 +14391,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-321527088"/>
+        <c:crossAx val="1494852464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-321521968"/>
+        <c:axId val="1454089008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14432,7 +14432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-321525728"/>
+        <c:crossAx val="1454085888"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="5"/>
       </c:serAx>
@@ -17626,12 +17626,12 @@
         <c:gapWidth val="0"/>
         <c:gapDepth val="0"/>
         <c:shape val="box"/>
-        <c:axId val="-321847392"/>
-        <c:axId val="-321844272"/>
-        <c:axId val="-321841152"/>
+        <c:axId val="1454181504"/>
+        <c:axId val="1454185264"/>
+        <c:axId val="1454188752"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="-321847392"/>
+        <c:axId val="1454181504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17729,7 +17729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-321844272"/>
+        <c:crossAx val="1454185264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17737,7 +17737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-321844272"/>
+        <c:axId val="1454185264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17843,12 +17843,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-321847392"/>
+        <c:crossAx val="1454181504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-321841152"/>
+        <c:axId val="1454188752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17884,7 +17884,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-321844272"/>
+        <c:crossAx val="1454185264"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
       </c:serAx>
@@ -31094,7 +31094,7 @@
   </sheetPr>
   <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F24" workbookViewId="0">
       <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
